--- a/results-zhuangbei.xlsx
+++ b/results-zhuangbei.xlsx
@@ -921,16 +921,16 @@
         <v>55026.63926</v>
       </c>
       <c r="K2">
-        <v>64955.37237</v>
+        <v>64955.37238</v>
       </c>
       <c r="L2">
-        <v>44126.77742</v>
+        <v>44126.77743</v>
       </c>
       <c r="M2">
-        <v>44126.77742</v>
+        <v>44126.77743</v>
       </c>
       <c r="N2">
-        <v>44126.77742</v>
+        <v>44126.77743</v>
       </c>
       <c r="O2">
         <v>3598.13194</v>
@@ -984,10 +984,10 @@
         <v>-18657.20632</v>
       </c>
       <c r="AF2">
-        <v>179107.3599</v>
+        <v>179107.35988</v>
       </c>
       <c r="AG2">
-        <v>186298.4479</v>
+        <v>186298.44788</v>
       </c>
       <c r="AH2">
         <v>-23.33052</v>
@@ -1047,7 +1047,7 @@
         <v>2525.75</v>
       </c>
       <c r="BC2">
-        <v>2551.0075</v>
+        <v>2525.75</v>
       </c>
       <c r="BD2">
         <v>-7.99149</v>
@@ -1062,16 +1062,16 @@
         <v>70.91254000000001</v>
       </c>
       <c r="BH2">
-        <v>-2.17588</v>
+        <v>-2.19764</v>
       </c>
       <c r="BI2">
-        <v>-1.96577</v>
+        <v>-1.98543</v>
       </c>
       <c r="BJ2">
-        <v>-1.96577</v>
+        <v>-1.98543</v>
       </c>
       <c r="BK2">
-        <v>134.99839</v>
+        <v>136.34837</v>
       </c>
       <c r="BL2">
         <v>0.5</v>
@@ -1080,16 +1080,16 @@
         <v>0.5</v>
       </c>
       <c r="BP2">
-        <v>0.72773</v>
+        <v>0.725</v>
       </c>
       <c r="BQ2">
-        <v>0.73388</v>
+        <v>0.73122</v>
       </c>
       <c r="BR2">
-        <v>0.73388</v>
+        <v>0.73122</v>
       </c>
       <c r="BS2">
-        <v>0.90373</v>
+        <v>0.92277</v>
       </c>
       <c r="BT2">
         <v>0.26998</v>
@@ -1110,7 +1110,7 @@
         <v>0.80843</v>
       </c>
       <c r="BZ2">
-        <v>0.81573</v>
+        <v>0.82389</v>
       </c>
       <c r="CA2">
         <v>0.53093</v>
@@ -1119,10 +1119,10 @@
         <v>14.55897</v>
       </c>
       <c r="CC2">
-        <v>17.29778</v>
+        <v>17.47076</v>
       </c>
       <c r="CD2">
-        <v>17.29778</v>
+        <v>17.47076</v>
       </c>
     </row>
     <row r="3" spans="1:82">
@@ -1157,16 +1157,16 @@
         <v>55026.63926</v>
       </c>
       <c r="K3">
-        <v>64955.37237</v>
+        <v>64955.37238</v>
       </c>
       <c r="L3">
-        <v>44126.77742</v>
+        <v>44126.77743</v>
       </c>
       <c r="M3">
-        <v>44126.77742</v>
+        <v>44126.77743</v>
       </c>
       <c r="N3">
-        <v>44126.77742</v>
+        <v>44126.77743</v>
       </c>
       <c r="O3">
         <v>3598.13194</v>
@@ -1217,10 +1217,10 @@
         <v>-18657.20632</v>
       </c>
       <c r="AF3">
-        <v>179107.3599</v>
+        <v>179107.35988</v>
       </c>
       <c r="AG3">
-        <v>186298.4479</v>
+        <v>186298.44788</v>
       </c>
       <c r="AH3">
         <v>-23.33052</v>
@@ -1274,7 +1274,7 @@
         <v>2525.75</v>
       </c>
       <c r="BC3">
-        <v>2551.0075</v>
+        <v>2525.75</v>
       </c>
       <c r="BD3">
         <v>-7.99149</v>
@@ -1289,16 +1289,16 @@
         <v>70.91254000000001</v>
       </c>
       <c r="BH3">
-        <v>-2.17588</v>
+        <v>-2.19764</v>
       </c>
       <c r="BI3">
-        <v>-1.96577</v>
+        <v>-1.98543</v>
       </c>
       <c r="BJ3">
-        <v>-1.96577</v>
+        <v>-1.98543</v>
       </c>
       <c r="BK3">
-        <v>134.99839</v>
+        <v>136.34837</v>
       </c>
       <c r="BL3">
         <v>0.5</v>
@@ -1307,28 +1307,28 @@
         <v>0.5</v>
       </c>
       <c r="BP3">
-        <v>0.72773</v>
+        <v>0.725</v>
       </c>
       <c r="BQ3">
-        <v>0.73388</v>
+        <v>0.73122</v>
       </c>
       <c r="BR3">
-        <v>0.73388</v>
+        <v>0.73122</v>
       </c>
       <c r="BS3">
-        <v>0.90373</v>
+        <v>0.92277</v>
       </c>
       <c r="BZ3">
-        <v>0.81573</v>
+        <v>0.82389</v>
       </c>
       <c r="CB3">
         <v>14.55897</v>
       </c>
       <c r="CC3">
-        <v>17.29778</v>
+        <v>17.47076</v>
       </c>
       <c r="CD3">
-        <v>17.29778</v>
+        <v>17.47076</v>
       </c>
     </row>
     <row r="4" spans="1:82">
@@ -1363,16 +1363,16 @@
         <v>55026.63926</v>
       </c>
       <c r="K4">
-        <v>64955.37237</v>
+        <v>64955.37238</v>
       </c>
       <c r="L4">
-        <v>44126.77742</v>
+        <v>44126.77743</v>
       </c>
       <c r="M4">
-        <v>44126.77742</v>
+        <v>44126.77743</v>
       </c>
       <c r="N4">
-        <v>44126.77742</v>
+        <v>44126.77743</v>
       </c>
       <c r="O4">
         <v>10899.86183</v>
@@ -1423,10 +1423,10 @@
         <v>-18657.20632</v>
       </c>
       <c r="AF4">
-        <v>179107.3599</v>
+        <v>179107.35988</v>
       </c>
       <c r="AG4">
-        <v>186298.4479</v>
+        <v>186298.44788</v>
       </c>
       <c r="AH4">
         <v>-23.33052</v>
@@ -1480,7 +1480,7 @@
         <v>2525.75</v>
       </c>
       <c r="BC4">
-        <v>2551.0075</v>
+        <v>2525.75</v>
       </c>
       <c r="BD4">
         <v>-7.99149</v>
@@ -1495,16 +1495,16 @@
         <v>70.91254000000001</v>
       </c>
       <c r="BH4">
-        <v>-2.17588</v>
+        <v>-2.19764</v>
       </c>
       <c r="BI4">
-        <v>-1.96577</v>
+        <v>-1.98543</v>
       </c>
       <c r="BJ4">
-        <v>-1.96577</v>
+        <v>-1.98543</v>
       </c>
       <c r="BK4">
-        <v>134.99839</v>
+        <v>136.34837</v>
       </c>
       <c r="BL4">
         <v>0.5</v>
@@ -1513,28 +1513,28 @@
         <v>0.5</v>
       </c>
       <c r="BP4">
-        <v>0.72773</v>
+        <v>0.725</v>
       </c>
       <c r="BQ4">
-        <v>0.73388</v>
+        <v>0.73122</v>
       </c>
       <c r="BR4">
-        <v>0.73388</v>
+        <v>0.73122</v>
       </c>
       <c r="BS4">
-        <v>0.90373</v>
+        <v>0.92277</v>
       </c>
       <c r="BZ4">
-        <v>0.81573</v>
+        <v>0.82389</v>
       </c>
       <c r="CB4">
         <v>14.55897</v>
       </c>
       <c r="CC4">
-        <v>17.29778</v>
+        <v>17.47076</v>
       </c>
       <c r="CD4">
-        <v>17.29778</v>
+        <v>17.47076</v>
       </c>
     </row>
   </sheetData>

--- a/results-zhuangbei.xlsx
+++ b/results-zhuangbei.xlsx
@@ -1228,6 +1228,9 @@
       <c r="AI3">
         <v>412.45151</v>
       </c>
+      <c r="AJ3">
+        <v>48356.02666</v>
+      </c>
       <c r="AK3">
         <v>-5550.69</v>
       </c>
@@ -1249,6 +1252,9 @@
       <c r="AQ3">
         <v>0</v>
       </c>
+      <c r="AR3">
+        <v>69414.83</v>
+      </c>
       <c r="AS3">
         <v>0.725</v>
       </c>
@@ -1318,8 +1324,29 @@
       <c r="BS3">
         <v>0.92277</v>
       </c>
+      <c r="BT3">
+        <v>0.26998</v>
+      </c>
+      <c r="BU3">
+        <v>0.20156</v>
+      </c>
+      <c r="BV3">
+        <v>0.25342</v>
+      </c>
+      <c r="BW3">
+        <v>-0.41741</v>
+      </c>
+      <c r="BX3">
+        <v>-0.07996</v>
+      </c>
+      <c r="BY3">
+        <v>0.80843</v>
+      </c>
       <c r="BZ3">
         <v>0.82389</v>
+      </c>
+      <c r="CA3">
+        <v>0.53093</v>
       </c>
       <c r="CB3">
         <v>14.55897</v>
@@ -1434,6 +1461,9 @@
       <c r="AI4">
         <v>412.45151</v>
       </c>
+      <c r="AJ4">
+        <v>48356.02666</v>
+      </c>
       <c r="AK4">
         <v>-5550.69</v>
       </c>
@@ -1455,6 +1485,9 @@
       <c r="AQ4">
         <v>0</v>
       </c>
+      <c r="AR4">
+        <v>69414.83</v>
+      </c>
       <c r="AS4">
         <v>0.725</v>
       </c>
@@ -1524,8 +1557,29 @@
       <c r="BS4">
         <v>0.92277</v>
       </c>
+      <c r="BT4">
+        <v>0.26998</v>
+      </c>
+      <c r="BU4">
+        <v>0.20156</v>
+      </c>
+      <c r="BV4">
+        <v>0.25342</v>
+      </c>
+      <c r="BW4">
+        <v>-0.41741</v>
+      </c>
+      <c r="BX4">
+        <v>-0.07996</v>
+      </c>
+      <c r="BY4">
+        <v>0.80843</v>
+      </c>
       <c r="BZ4">
         <v>0.82389</v>
+      </c>
+      <c r="CA4">
+        <v>0.53093</v>
       </c>
       <c r="CB4">
         <v>14.55897</v>

--- a/results-zhuangbei.xlsx
+++ b/results-zhuangbei.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="92">
   <si>
     <t>var_name</t>
   </si>
@@ -97,7 +97,10 @@
     <t>扣减/上年度工资总额（最终）</t>
   </si>
   <si>
-    <t>板块微调系数</t>
+    <t>板块微调系数（递延）</t>
+  </si>
+  <si>
+    <t>板块微调系数（总包）</t>
   </si>
   <si>
     <t>上年度利润总额（万元）</t>
@@ -644,13 +647,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:CD4"/>
+  <dimension ref="A1:CE4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:82">
+    <row r="1" spans="1:83">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -897,16 +900,19 @@
       <c r="CD1" s="1" t="s">
         <v>81</v>
       </c>
+      <c r="CE1" s="1" t="s">
+        <v>82</v>
+      </c>
     </row>
-    <row r="2" spans="1:82">
+    <row r="2" spans="1:83">
       <c r="A2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="E2">
         <v>36772.31452</v>
@@ -975,168 +981,171 @@
         <v>1</v>
       </c>
       <c r="AC2">
+        <v>1</v>
+      </c>
+      <c r="AD2">
         <v>-20184.50606</v>
-      </c>
-      <c r="AD2">
-        <v>-18657.20632</v>
       </c>
       <c r="AE2">
         <v>-18657.20632</v>
       </c>
       <c r="AF2">
+        <v>-18657.20632</v>
+      </c>
+      <c r="AG2">
         <v>179107.35988</v>
       </c>
-      <c r="AG2">
+      <c r="AH2">
         <v>186298.44788</v>
       </c>
-      <c r="AH2">
+      <c r="AI2">
         <v>-23.33052</v>
       </c>
-      <c r="AI2">
+      <c r="AJ2">
         <v>412.45151</v>
       </c>
-      <c r="AJ2">
+      <c r="AK2">
         <v>48356.02666</v>
       </c>
-      <c r="AK2">
+      <c r="AL2">
         <v>-5550.69</v>
-      </c>
-      <c r="AL2">
-        <v>-5014.7</v>
       </c>
       <c r="AM2">
         <v>-5014.7</v>
       </c>
       <c r="AN2">
+        <v>-5014.7</v>
+      </c>
+      <c r="AO2">
         <v>344381.9</v>
       </c>
-      <c r="AO2">
+      <c r="AP2">
         <v>364207.59</v>
       </c>
-      <c r="AP2">
+      <c r="AQ2">
         <v>14312</v>
       </c>
-      <c r="AQ2">
+      <c r="AR2">
         <v>0</v>
       </c>
-      <c r="AR2">
+      <c r="AS2">
         <v>69414.83</v>
       </c>
-      <c r="AS2">
+      <c r="AT2">
         <v>0.725</v>
-      </c>
-      <c r="AT2">
-        <v>0.73122</v>
       </c>
       <c r="AU2">
         <v>0.73122</v>
       </c>
       <c r="AV2">
+        <v>0.73122</v>
+      </c>
+      <c r="AW2">
         <v>0.92277</v>
       </c>
-      <c r="AY2">
+      <c r="AZ2">
         <v>1.04015</v>
       </c>
-      <c r="AZ2">
+      <c r="BA2">
         <v>1.05757</v>
       </c>
-      <c r="BA2">
+      <c r="BB2">
         <v>-0.01675</v>
-      </c>
-      <c r="BB2">
-        <v>2525.75</v>
       </c>
       <c r="BC2">
         <v>2525.75</v>
       </c>
       <c r="BD2">
+        <v>2525.75</v>
+      </c>
+      <c r="BE2">
         <v>-7.99149</v>
-      </c>
-      <c r="BE2">
-        <v>-7.3868</v>
       </c>
       <c r="BF2">
         <v>-7.3868</v>
       </c>
       <c r="BG2">
+        <v>-7.3868</v>
+      </c>
+      <c r="BH2">
         <v>70.91254000000001</v>
       </c>
-      <c r="BH2">
+      <c r="BI2">
         <v>-2.19764</v>
-      </c>
-      <c r="BI2">
-        <v>-1.98543</v>
       </c>
       <c r="BJ2">
         <v>-1.98543</v>
       </c>
       <c r="BK2">
+        <v>-1.98543</v>
+      </c>
+      <c r="BL2">
         <v>136.34837</v>
       </c>
-      <c r="BL2">
+      <c r="BM2">
         <v>0.5</v>
       </c>
-      <c r="BO2">
+      <c r="BP2">
         <v>0.5</v>
       </c>
-      <c r="BP2">
+      <c r="BQ2">
         <v>0.725</v>
-      </c>
-      <c r="BQ2">
-        <v>0.73122</v>
       </c>
       <c r="BR2">
         <v>0.73122</v>
       </c>
       <c r="BS2">
+        <v>0.73122</v>
+      </c>
+      <c r="BT2">
         <v>0.92277</v>
       </c>
-      <c r="BT2">
+      <c r="BU2">
         <v>0.26998</v>
       </c>
-      <c r="BU2">
+      <c r="BV2">
         <v>0.20156</v>
       </c>
-      <c r="BV2">
+      <c r="BW2">
         <v>0.25342</v>
       </c>
-      <c r="BW2">
+      <c r="BX2">
         <v>-0.41741</v>
       </c>
-      <c r="BX2">
+      <c r="BY2">
         <v>-0.07996</v>
       </c>
-      <c r="BY2">
+      <c r="BZ2">
         <v>0.80843</v>
       </c>
-      <c r="BZ2">
+      <c r="CA2">
         <v>0.82389</v>
       </c>
-      <c r="CA2">
+      <c r="CB2">
         <v>0.53093</v>
       </c>
-      <c r="CB2">
+      <c r="CC2">
         <v>14.55897</v>
-      </c>
-      <c r="CC2">
-        <v>17.47076</v>
       </c>
       <c r="CD2">
         <v>17.47076</v>
       </c>
+      <c r="CE2">
+        <v>17.47076</v>
+      </c>
     </row>
-    <row r="3" spans="1:82">
+    <row r="3" spans="1:83">
       <c r="A3" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B3" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C3" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="D3" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="E3">
         <v>36772.31452</v>
@@ -1208,168 +1217,171 @@
         <v>1</v>
       </c>
       <c r="AC3">
+        <v>1</v>
+      </c>
+      <c r="AD3">
         <v>-20184.50606</v>
-      </c>
-      <c r="AD3">
-        <v>-18657.20632</v>
       </c>
       <c r="AE3">
         <v>-18657.20632</v>
       </c>
       <c r="AF3">
+        <v>-18657.20632</v>
+      </c>
+      <c r="AG3">
         <v>179107.35988</v>
       </c>
-      <c r="AG3">
+      <c r="AH3">
         <v>186298.44788</v>
       </c>
-      <c r="AH3">
+      <c r="AI3">
         <v>-23.33052</v>
       </c>
-      <c r="AI3">
+      <c r="AJ3">
         <v>412.45151</v>
       </c>
-      <c r="AJ3">
+      <c r="AK3">
         <v>48356.02666</v>
       </c>
-      <c r="AK3">
+      <c r="AL3">
         <v>-5550.69</v>
-      </c>
-      <c r="AL3">
-        <v>-5014.7</v>
       </c>
       <c r="AM3">
         <v>-5014.7</v>
       </c>
       <c r="AN3">
+        <v>-5014.7</v>
+      </c>
+      <c r="AO3">
         <v>344381.9</v>
       </c>
-      <c r="AO3">
+      <c r="AP3">
         <v>364207.59</v>
       </c>
-      <c r="AP3">
+      <c r="AQ3">
         <v>14312</v>
       </c>
-      <c r="AQ3">
+      <c r="AR3">
         <v>0</v>
       </c>
-      <c r="AR3">
+      <c r="AS3">
         <v>69414.83</v>
       </c>
-      <c r="AS3">
+      <c r="AT3">
         <v>0.725</v>
-      </c>
-      <c r="AT3">
-        <v>0.73122</v>
       </c>
       <c r="AU3">
         <v>0.73122</v>
       </c>
       <c r="AV3">
+        <v>0.73122</v>
+      </c>
+      <c r="AW3">
         <v>0.92277</v>
       </c>
-      <c r="AY3">
+      <c r="AZ3">
         <v>1.04015</v>
       </c>
-      <c r="AZ3">
+      <c r="BA3">
         <v>1.05757</v>
       </c>
-      <c r="BA3">
+      <c r="BB3">
         <v>-0.01675</v>
-      </c>
-      <c r="BB3">
-        <v>2525.75</v>
       </c>
       <c r="BC3">
         <v>2525.75</v>
       </c>
       <c r="BD3">
+        <v>2525.75</v>
+      </c>
+      <c r="BE3">
         <v>-7.99149</v>
-      </c>
-      <c r="BE3">
-        <v>-7.3868</v>
       </c>
       <c r="BF3">
         <v>-7.3868</v>
       </c>
       <c r="BG3">
+        <v>-7.3868</v>
+      </c>
+      <c r="BH3">
         <v>70.91254000000001</v>
       </c>
-      <c r="BH3">
+      <c r="BI3">
         <v>-2.19764</v>
-      </c>
-      <c r="BI3">
-        <v>-1.98543</v>
       </c>
       <c r="BJ3">
         <v>-1.98543</v>
       </c>
       <c r="BK3">
+        <v>-1.98543</v>
+      </c>
+      <c r="BL3">
         <v>136.34837</v>
       </c>
-      <c r="BL3">
+      <c r="BM3">
         <v>0.5</v>
       </c>
-      <c r="BO3">
+      <c r="BP3">
         <v>0.5</v>
       </c>
-      <c r="BP3">
+      <c r="BQ3">
         <v>0.725</v>
-      </c>
-      <c r="BQ3">
-        <v>0.73122</v>
       </c>
       <c r="BR3">
         <v>0.73122</v>
       </c>
       <c r="BS3">
+        <v>0.73122</v>
+      </c>
+      <c r="BT3">
         <v>0.92277</v>
       </c>
-      <c r="BT3">
+      <c r="BU3">
         <v>0.26998</v>
       </c>
-      <c r="BU3">
+      <c r="BV3">
         <v>0.20156</v>
       </c>
-      <c r="BV3">
+      <c r="BW3">
         <v>0.25342</v>
       </c>
-      <c r="BW3">
+      <c r="BX3">
         <v>-0.41741</v>
       </c>
-      <c r="BX3">
+      <c r="BY3">
         <v>-0.07996</v>
       </c>
-      <c r="BY3">
+      <c r="BZ3">
         <v>0.80843</v>
       </c>
-      <c r="BZ3">
+      <c r="CA3">
         <v>0.82389</v>
       </c>
-      <c r="CA3">
+      <c r="CB3">
         <v>0.53093</v>
       </c>
-      <c r="CB3">
+      <c r="CC3">
         <v>14.55897</v>
-      </c>
-      <c r="CC3">
-        <v>17.47076</v>
       </c>
       <c r="CD3">
         <v>17.47076</v>
       </c>
+      <c r="CE3">
+        <v>17.47076</v>
+      </c>
     </row>
-    <row r="4" spans="1:82">
+    <row r="4" spans="1:83">
       <c r="A4" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B4" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C4" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="D4" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="E4">
         <v>36772.31452</v>
@@ -1440,154 +1452,154 @@
       <c r="AA4">
         <v>0</v>
       </c>
-      <c r="AC4">
+      <c r="AD4">
         <v>-20184.50606</v>
-      </c>
-      <c r="AD4">
-        <v>-18657.20632</v>
       </c>
       <c r="AE4">
         <v>-18657.20632</v>
       </c>
       <c r="AF4">
+        <v>-18657.20632</v>
+      </c>
+      <c r="AG4">
         <v>179107.35988</v>
       </c>
-      <c r="AG4">
+      <c r="AH4">
         <v>186298.44788</v>
       </c>
-      <c r="AH4">
+      <c r="AI4">
         <v>-23.33052</v>
       </c>
-      <c r="AI4">
+      <c r="AJ4">
         <v>412.45151</v>
       </c>
-      <c r="AJ4">
+      <c r="AK4">
         <v>48356.02666</v>
       </c>
-      <c r="AK4">
+      <c r="AL4">
         <v>-5550.69</v>
-      </c>
-      <c r="AL4">
-        <v>-5014.7</v>
       </c>
       <c r="AM4">
         <v>-5014.7</v>
       </c>
       <c r="AN4">
+        <v>-5014.7</v>
+      </c>
+      <c r="AO4">
         <v>344381.9</v>
       </c>
-      <c r="AO4">
+      <c r="AP4">
         <v>364207.59</v>
       </c>
-      <c r="AP4">
+      <c r="AQ4">
         <v>14312</v>
       </c>
-      <c r="AQ4">
+      <c r="AR4">
         <v>0</v>
       </c>
-      <c r="AR4">
+      <c r="AS4">
         <v>69414.83</v>
       </c>
-      <c r="AS4">
+      <c r="AT4">
         <v>0.725</v>
-      </c>
-      <c r="AT4">
-        <v>0.73122</v>
       </c>
       <c r="AU4">
         <v>0.73122</v>
       </c>
       <c r="AV4">
+        <v>0.73122</v>
+      </c>
+      <c r="AW4">
         <v>0.92277</v>
       </c>
-      <c r="AY4">
+      <c r="AZ4">
         <v>1.04015</v>
       </c>
-      <c r="AZ4">
+      <c r="BA4">
         <v>1.05757</v>
       </c>
-      <c r="BA4">
+      <c r="BB4">
         <v>-0.01675</v>
-      </c>
-      <c r="BB4">
-        <v>2525.75</v>
       </c>
       <c r="BC4">
         <v>2525.75</v>
       </c>
       <c r="BD4">
+        <v>2525.75</v>
+      </c>
+      <c r="BE4">
         <v>-7.99149</v>
-      </c>
-      <c r="BE4">
-        <v>-7.3868</v>
       </c>
       <c r="BF4">
         <v>-7.3868</v>
       </c>
       <c r="BG4">
+        <v>-7.3868</v>
+      </c>
+      <c r="BH4">
         <v>70.91254000000001</v>
       </c>
-      <c r="BH4">
+      <c r="BI4">
         <v>-2.19764</v>
-      </c>
-      <c r="BI4">
-        <v>-1.98543</v>
       </c>
       <c r="BJ4">
         <v>-1.98543</v>
       </c>
       <c r="BK4">
+        <v>-1.98543</v>
+      </c>
+      <c r="BL4">
         <v>136.34837</v>
       </c>
-      <c r="BL4">
+      <c r="BM4">
         <v>0.5</v>
       </c>
-      <c r="BO4">
+      <c r="BP4">
         <v>0.5</v>
       </c>
-      <c r="BP4">
+      <c r="BQ4">
         <v>0.725</v>
-      </c>
-      <c r="BQ4">
-        <v>0.73122</v>
       </c>
       <c r="BR4">
         <v>0.73122</v>
       </c>
       <c r="BS4">
+        <v>0.73122</v>
+      </c>
+      <c r="BT4">
         <v>0.92277</v>
       </c>
-      <c r="BT4">
+      <c r="BU4">
         <v>0.26998</v>
       </c>
-      <c r="BU4">
+      <c r="BV4">
         <v>0.20156</v>
       </c>
-      <c r="BV4">
+      <c r="BW4">
         <v>0.25342</v>
       </c>
-      <c r="BW4">
+      <c r="BX4">
         <v>-0.41741</v>
       </c>
-      <c r="BX4">
+      <c r="BY4">
         <v>-0.07996</v>
       </c>
-      <c r="BY4">
+      <c r="BZ4">
         <v>0.80843</v>
       </c>
-      <c r="BZ4">
+      <c r="CA4">
         <v>0.82389</v>
       </c>
-      <c r="CA4">
+      <c r="CB4">
         <v>0.53093</v>
       </c>
-      <c r="CB4">
+      <c r="CC4">
         <v>14.55897</v>
       </c>
-      <c r="CC4">
+      <c r="CD4">
         <v>17.47076</v>
       </c>
-      <c r="CD4">
+      <c r="CE4">
         <v>17.47076</v>
       </c>
     </row>
